--- a/Data/LandscapeGraphData.xlsx
+++ b/Data/LandscapeGraphData.xlsx
@@ -507,7 +507,7 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,7 +550,7 @@
         <v>31</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -573,7 +573,7 @@
         <v>32</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3" t="s">
         <v>13</v>
@@ -596,7 +596,7 @@
         <v>33</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
@@ -619,7 +619,7 @@
         <v>34</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
         <v>14</v>
@@ -642,7 +642,7 @@
         <v>35</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>
@@ -665,7 +665,7 @@
         <v>36</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="s">
         <v>11</v>
@@ -688,7 +688,7 @@
         <v>37</v>
       </c>
       <c r="C8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
         <v>11</v>
@@ -711,7 +711,7 @@
         <v>38</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
         <v>11</v>
@@ -734,7 +734,7 @@
         <v>39</v>
       </c>
       <c r="C10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
         <v>12</v>
@@ -757,7 +757,7 @@
         <v>40</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
         <v>12</v>
@@ -780,7 +780,7 @@
         <v>51</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
